--- a/Team-Data/2008-09/3-18-2008-09.xlsx
+++ b/Team-Data/2008-09/3-18-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -759,7 +826,7 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -786,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
@@ -804,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
@@ -813,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -863,52 +930,52 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
         <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
         <v>42.5</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="V3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
@@ -917,16 +984,16 @@
         <v>23.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.6</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
         <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -956,10 +1023,10 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
         <v>6</v>
@@ -971,7 +1038,7 @@
         <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
         <v>8</v>
@@ -983,22 +1050,22 @@
         <v>29</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
         <v>5</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -1030,85 +1097,85 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
         <v>38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.441</v>
+        <v>0.433</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="J4" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O4" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="P4" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="R4" t="n">
         <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T4" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="U4" t="n">
         <v>21.2</v>
       </c>
       <c r="V4" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA4" t="n">
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.59999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1120,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1132,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>25</v>
@@ -1150,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
         <v>26</v>
@@ -1159,13 +1226,13 @@
         <v>27</v>
       </c>
       <c r="AU4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1174,16 +1241,16 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -1227,43 +1294,43 @@
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
         <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
         <v>14.9</v>
@@ -1275,22 +1342,22 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
         <v>21.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1314,58 +1381,58 @@
         <v>19</v>
       </c>
       <c r="AL5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM5" t="n">
         <v>23</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
         <v>54</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="H6" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K6" t="n">
         <v>0.469</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.391</v>
+        <v>0.389</v>
       </c>
       <c r="O6" t="n">
         <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>0.754</v>
@@ -1439,40 +1506,40 @@
         <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.7</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1505,10 +1572,10 @@
         <v>3</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
@@ -1517,31 +1584,31 @@
         <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
         <v>14</v>
       </c>
       <c r="AU6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ6" t="n">
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1684,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1696,19 +1763,19 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS7" t="n">
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>16</v>
@@ -1723,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="n">
         <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.638</v>
+        <v>0.632</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,7 +1843,7 @@
         <v>36.8</v>
       </c>
       <c r="J8" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.466</v>
@@ -1785,10 +1852,10 @@
         <v>6.4</v>
       </c>
       <c r="M8" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O8" t="n">
         <v>23.1</v>
@@ -1797,7 +1864,7 @@
         <v>30.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
         <v>11.2</v>
@@ -1809,10 +1876,10 @@
         <v>41.7</v>
       </c>
       <c r="U8" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V8" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W8" t="n">
         <v>8.5</v>
@@ -1821,7 +1888,7 @@
         <v>5.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z8" t="n">
         <v>22.8</v>
@@ -1830,22 +1897,22 @@
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.2</v>
+        <v>103</v>
       </c>
       <c r="AC8" t="n">
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
       </c>
       <c r="AF8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG8" t="n">
         <v>7</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>26</v>
@@ -1899,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
         <v>25</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" t="n">
         <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>0.493</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J9" t="n">
-        <v>80.09999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
@@ -1970,31 +2037,31 @@
         <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>0.348</v>
+        <v>0.345</v>
       </c>
       <c r="O9" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P9" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R9" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S9" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T9" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U9" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V9" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W9" t="n">
         <v>6.3</v>
@@ -2003,7 +2070,7 @@
         <v>4.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="n">
         <v>21.1</v>
@@ -2012,13 +2079,13 @@
         <v>19.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2030,13 +2097,13 @@
         <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>18</v>
@@ -2048,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2060,13 +2127,13 @@
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
         <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2081,7 +2148,7 @@
         <v>20</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2248,10 +2315,10 @@
         <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.643</v>
+        <v>0.638</v>
       </c>
       <c r="H11" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J11" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K11" t="n">
         <v>0.451</v>
@@ -2331,7 +2398,7 @@
         <v>7.6</v>
       </c>
       <c r="M11" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="N11" t="n">
         <v>0.371</v>
@@ -2343,28 +2410,28 @@
         <v>24</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.805</v>
+        <v>0.806</v>
       </c>
       <c r="R11" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S11" t="n">
         <v>32.4</v>
       </c>
       <c r="T11" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U11" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V11" t="n">
         <v>14.3</v>
       </c>
       <c r="W11" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y11" t="n">
         <v>5.3</v>
@@ -2376,7 +2443,7 @@
         <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC11" t="n">
         <v>3.8</v>
@@ -2385,16 +2452,16 @@
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>27</v>
@@ -2424,16 +2491,16 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
@@ -2442,7 +2509,7 @@
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY11" t="n">
         <v>22</v>
@@ -2457,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -2486,88 +2553,88 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" t="n">
         <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>0.406</v>
+        <v>0.412</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J12" t="n">
         <v>86.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L12" t="n">
         <v>7.9</v>
       </c>
       <c r="M12" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O12" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P12" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
         <v>43.5</v>
       </c>
       <c r="U12" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W12" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" t="n">
         <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>104</v>
+        <v>104.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2597,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
@@ -2606,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="AR12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2627,19 +2694,19 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -2668,43 +2735,43 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
         <v>51</v>
       </c>
       <c r="G13" t="n">
-        <v>0.25</v>
+        <v>0.239</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J13" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.356</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
         <v>17.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q13" t="n">
         <v>0.744</v>
@@ -2719,37 +2786,37 @@
         <v>40.1</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
         <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
         <v>5.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA13" t="n">
         <v>19.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.7</v>
+        <v>95.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
         <v>26</v>
@@ -2776,7 +2843,7 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2791,13 +2858,13 @@
         <v>14</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>22</v>
       </c>
       <c r="AU13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV13" t="n">
         <v>19</v>
@@ -2812,10 +2879,10 @@
         <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -2850,55 +2917,55 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.788</v>
+        <v>0.791</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O14" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P14" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
         <v>23.5</v>
@@ -2910,7 +2977,7 @@
         <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
@@ -2919,16 +2986,16 @@
         <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.2</v>
+        <v>108</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2943,7 +3010,7 @@
         <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
@@ -2973,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2991,10 +3058,10 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" t="n">
-        <v>0.254</v>
+        <v>0.258</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J15" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="K15" t="n">
         <v>0.45</v>
@@ -3062,7 +3129,7 @@
         <v>13.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.348</v>
+        <v>0.345</v>
       </c>
       <c r="O15" t="n">
         <v>18.9</v>
@@ -3071,46 +3138,46 @@
         <v>25.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S15" t="n">
         <v>28.4</v>
       </c>
       <c r="T15" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U15" t="n">
         <v>17.3</v>
       </c>
       <c r="V15" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA15" t="n">
         <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,13 +3207,13 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>24</v>
@@ -3170,13 +3237,13 @@
         <v>11</v>
       </c>
       <c r="AX15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>20</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" t="n">
         <v>36</v>
       </c>
       <c r="F16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>0.537</v>
+        <v>0.545</v>
       </c>
       <c r="H16" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J16" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
@@ -3244,16 +3311,16 @@
         <v>19.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O16" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P16" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
@@ -3265,13 +3332,13 @@
         <v>39.3</v>
       </c>
       <c r="U16" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V16" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W16" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>5.6</v>
@@ -3280,31 +3347,31 @@
         <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI16" t="n">
         <v>10</v>
@@ -3328,7 +3395,7 @@
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
@@ -3343,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3358,10 +3425,10 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -3411,49 +3478,49 @@
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J17" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.444</v>
+        <v>0.446</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M17" t="n">
         <v>16.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R17" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X17" t="n">
         <v>3.8</v>
@@ -3465,16 +3532,16 @@
         <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3486,10 +3553,10 @@
         <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -3498,7 +3565,7 @@
         <v>27</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM17" t="n">
         <v>20</v>
@@ -3507,7 +3574,7 @@
         <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
         <v>9</v>
@@ -3516,13 +3583,13 @@
         <v>11</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
         <v>9</v>
@@ -3537,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -3578,49 +3645,49 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" t="n">
-        <v>0.294</v>
+        <v>0.299</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J18" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K18" t="n">
         <v>0.442</v>
       </c>
       <c r="L18" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M18" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N18" t="n">
         <v>0.344</v>
       </c>
       <c r="O18" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P18" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q18" t="n">
         <v>0.773</v>
       </c>
       <c r="R18" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S18" t="n">
         <v>29.9</v>
@@ -3635,7 +3702,7 @@
         <v>14.3</v>
       </c>
       <c r="W18" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X18" t="n">
         <v>4.1</v>
@@ -3647,16 +3714,16 @@
         <v>22.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC18" t="n">
         <v>-4.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,10 +3735,10 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>6</v>
@@ -3683,16 +3750,16 @@
         <v>20</v>
       </c>
       <c r="AM18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN18" t="n">
         <v>28</v>
       </c>
       <c r="AO18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
         <v>14</v>
@@ -3704,19 +3771,19 @@
         <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
       </c>
       <c r="AX18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3725,7 +3792,7 @@
         <v>22</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
         <v>39</v>
       </c>
       <c r="G19" t="n">
-        <v>0.426</v>
+        <v>0.418</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J19" t="n">
         <v>80.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.45</v>
+        <v>0.447</v>
       </c>
       <c r="L19" t="n">
         <v>8</v>
@@ -3790,19 +3857,19 @@
         <v>21</v>
       </c>
       <c r="N19" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O19" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="P19" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="Q19" t="n">
         <v>0.783</v>
       </c>
       <c r="R19" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S19" t="n">
         <v>29.3</v>
@@ -3811,7 +3878,7 @@
         <v>39.7</v>
       </c>
       <c r="U19" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V19" t="n">
         <v>13.2</v>
@@ -3826,28 +3893,28 @@
         <v>4.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.2</v>
+        <v>-2.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>10</v>
@@ -3859,7 +3926,7 @@
         <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>4</v>
@@ -3871,19 +3938,19 @@
         <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT19" t="n">
         <v>24</v>
@@ -3898,22 +3965,22 @@
         <v>21</v>
       </c>
       <c r="AX19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY19" t="n">
         <v>16</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>15</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB19" t="n">
         <v>16</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" t="n">
         <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.627</v>
+        <v>0.621</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
@@ -3969,10 +4036,10 @@
         <v>7.2</v>
       </c>
       <c r="M20" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O20" t="n">
         <v>18.4</v>
@@ -3996,7 +4063,7 @@
         <v>19.7</v>
       </c>
       <c r="V20" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W20" t="n">
         <v>7.3</v>
@@ -4005,28 +4072,28 @@
         <v>4.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA20" t="n">
         <v>20.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4050,19 +4117,19 @@
         <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
       </c>
       <c r="AR20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS20" t="n">
         <v>16</v>
@@ -4071,13 +4138,13 @@
         <v>23</v>
       </c>
       <c r="AU20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4086,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" t="n">
         <v>28</v>
       </c>
       <c r="F21" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>0.418</v>
+        <v>0.424</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4148,22 +4215,22 @@
         <v>0.444</v>
       </c>
       <c r="L21" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="M21" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O21" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P21" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.789</v>
+        <v>0.792</v>
       </c>
       <c r="R21" t="n">
         <v>11.1</v>
@@ -4175,7 +4242,7 @@
         <v>42.4</v>
       </c>
       <c r="U21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V21" t="n">
         <v>14.4</v>
@@ -4187,34 +4254,34 @@
         <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA21" t="n">
         <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.8</v>
+        <v>106.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE21" t="n">
         <v>20</v>
       </c>
-      <c r="AE21" t="n">
-        <v>21</v>
-      </c>
       <c r="AF21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG21" t="n">
         <v>20</v>
       </c>
-      <c r="AG21" t="n">
-        <v>21</v>
-      </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4241,7 +4308,7 @@
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4259,7 +4326,7 @@
         <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" t="n">
         <v>19</v>
       </c>
       <c r="F22" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" t="n">
-        <v>0.279</v>
+        <v>0.284</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4336,13 +4403,13 @@
         <v>11.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.353</v>
+        <v>0.356</v>
       </c>
       <c r="O22" t="n">
         <v>20.2</v>
       </c>
       <c r="P22" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q22" t="n">
         <v>0.787</v>
@@ -4351,40 +4418,40 @@
         <v>12.4</v>
       </c>
       <c r="S22" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="T22" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U22" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V22" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,16 +4463,16 @@
         <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,10 +4481,10 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>10</v>
@@ -4429,19 +4496,19 @@
         <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AT22" t="n">
         <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,10 +4517,10 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" t="n">
         <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>0.735</v>
+        <v>0.731</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
@@ -4506,10 +4573,10 @@
         <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
         <v>10.3</v>
@@ -4518,28 +4585,28 @@
         <v>26.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="O23" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P23" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S23" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
         <v>43.3</v>
       </c>
       <c r="U23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V23" t="n">
         <v>14.3</v>
@@ -4548,7 +4615,7 @@
         <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y23" t="n">
         <v>3.7</v>
@@ -4563,28 +4630,28 @@
         <v>102.1</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
         <v>10</v>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4623,16 +4690,16 @@
         <v>15</v>
       </c>
       <c r="AW23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>7</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" t="n">
         <v>34</v>
       </c>
       <c r="F24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="n">
-        <v>0.515</v>
+        <v>0.523</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J24" t="n">
         <v>80.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M24" t="n">
         <v>13.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.317</v>
+        <v>0.314</v>
       </c>
       <c r="O24" t="n">
         <v>19.1</v>
       </c>
       <c r="P24" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="R24" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S24" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="T24" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U24" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V24" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
@@ -4733,7 +4800,7 @@
         <v>5.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z24" t="n">
         <v>20</v>
@@ -4742,19 +4809,19 @@
         <v>21.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
@@ -4763,13 +4830,13 @@
         <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>16</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP24" t="n">
         <v>8</v>
@@ -4793,10 +4860,10 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
@@ -4811,7 +4878,7 @@
         <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
         <v>7</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -4852,49 +4919,49 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
         <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.544</v>
+        <v>0.537</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
       </c>
       <c r="I25" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="J25" t="n">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.505</v>
+        <v>0.504</v>
       </c>
       <c r="L25" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.382</v>
+        <v>0.384</v>
       </c>
       <c r="O25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P25" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="n">
         <v>0.755</v>
       </c>
       <c r="R25" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S25" t="n">
         <v>30.9</v>
@@ -4903,10 +4970,10 @@
         <v>41.2</v>
       </c>
       <c r="U25" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V25" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
@@ -4918,37 +4985,37 @@
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA25" t="n">
         <v>22.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>108.5</v>
+        <v>108.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4978,7 +5045,7 @@
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU25" t="n">
         <v>3</v>
@@ -4987,7 +5054,7 @@
         <v>28</v>
       </c>
       <c r="AW25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -5037,43 +5104,43 @@
         <v>67</v>
       </c>
       <c r="E26" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.642</v>
+        <v>0.627</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
         <v>79</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
       </c>
       <c r="M26" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
         <v>24.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
@@ -5097,22 +5164,22 @@
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
         <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
@@ -5121,13 +5188,13 @@
         <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI26" t="n">
         <v>19</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -5136,7 +5203,7 @@
         <v>8</v>
       </c>
       <c r="AL26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM26" t="n">
         <v>13</v>
@@ -5145,13 +5212,13 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP26" t="n">
         <v>17</v>
       </c>
-      <c r="AP26" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,10 +5227,10 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5178,16 +5245,16 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB26" t="n">
         <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="n">
         <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" t="n">
-        <v>0.206</v>
+        <v>0.209</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5234,10 +5301,10 @@
         <v>36.1</v>
       </c>
       <c r="J27" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L27" t="n">
         <v>6.9</v>
@@ -5246,13 +5313,13 @@
         <v>19</v>
       </c>
       <c r="N27" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O27" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="P27" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q27" t="n">
         <v>0.803</v>
@@ -5261,40 +5328,40 @@
         <v>10</v>
       </c>
       <c r="S27" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="T27" t="n">
-        <v>38.6</v>
+        <v>38.8</v>
       </c>
       <c r="U27" t="n">
         <v>19.7</v>
       </c>
       <c r="V27" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W27" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X27" t="n">
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z27" t="n">
         <v>23.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5306,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -5315,7 +5382,7 @@
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
         <v>12</v>
@@ -5324,34 +5391,34 @@
         <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
         <v>30</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5524,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>8</v>
@@ -5551,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5670,13 +5737,13 @@
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
         <v>18</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK29" t="n">
         <v>15</v>
@@ -5694,7 +5761,7 @@
         <v>18</v>
       </c>
       <c r="AP29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5718,7 +5785,7 @@
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>10</v>
@@ -5858,7 +5925,7 @@
         <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5888,7 +5955,7 @@
         <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5900,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
@@ -5944,64 +6011,64 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" t="n">
-        <v>0.232</v>
+        <v>0.235</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M31" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="O31" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P31" t="n">
         <v>23</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R31" t="n">
         <v>11.6</v>
       </c>
       <c r="S31" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="T31" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U31" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V31" t="n">
         <v>14</v>
       </c>
       <c r="W31" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
         <v>4.2</v>
@@ -6013,19 +6080,19 @@
         <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.7</v>
+        <v>-7.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
         <v>29</v>
@@ -6034,16 +6101,16 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6061,7 +6128,7 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>10</v>
@@ -6073,13 +6140,13 @@
         <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-18-2008-09</t>
+          <t>2009-03-18</t>
         </is>
       </c>
     </row>
